--- a/biology/Médecine/Syndrome_de_Shprintzen-Goldberg/Syndrome_de_Shprintzen-Goldberg.xlsx
+++ b/biology/Médecine/Syndrome_de_Shprintzen-Goldberg/Syndrome_de_Shprintzen-Goldberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Shprintzen-Goldberg associe une craniosynostose impliquant les sutures coronales, sagittales et lambdoides, des anomalies du visage, des anomalies des os (arachnodactylie, camptodactylie, des pieds plats, une déformation du sternum, une scoliose ou une hyperlaxitè ligamentaire), des anomalies neurologiques, un retard mental léger et des malformations du cerveau (hydrocéphalie, dilatation des ventricules latéraux, malformation d'Arnold-Chiari).
@@ -515,9 +527,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Marie T Greally, Shprintzen-Goldberg Syndrome in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Marie T Greally, Shprintzen-Goldberg Syndrome in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 </t>
         </is>
       </c>
     </row>
